--- a/CASUAL/LA PICNIC GROVE/CORTADO, JOEL.xlsx
+++ b/CASUAL/LA PICNIC GROVE/CORTADO, JOEL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>UT(0-2-19)</t>
+  </si>
+  <si>
+    <t>UT(0-3-10)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-10)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-33)</t>
   </si>
 </sst>
 </file>
@@ -904,7 +922,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +965,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1029,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1089,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1155,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1218,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1316,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1375,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1440,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1483,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1558,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1744,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1810,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1868,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1934,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1990,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2065,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2108,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2174,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2230,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2678,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="G9" sqref="G9"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,7 +2841,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.129000000000005</v>
+        <v>40.68</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3566,11 +3584,15 @@
       <c r="A46" s="40">
         <v>44621</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>6.9000000000000006E-2</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
@@ -3586,11 +3608,15 @@
       <c r="A47" s="40">
         <v>44652</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="39"/>
+      <c r="D47" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
@@ -3606,11 +3632,15 @@
       <c r="A48" s="40">
         <v>44682</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -3626,11 +3656,15 @@
       <c r="A49" s="40">
         <v>44713</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -3646,11 +3680,15 @@
       <c r="A50" s="40">
         <v>44743</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>0.39600000000000002</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
@@ -3666,11 +3704,15 @@
       <c r="A51" s="40">
         <v>44774</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
-      <c r="D51" s="39"/>
+      <c r="D51" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
@@ -3686,11 +3728,15 @@
       <c r="A52" s="40">
         <v>44805</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
@@ -4418,11 +4464,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.04</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
